--- a/药店报账工具/药店报账工具/报表.xlsx
+++ b/药店报账工具/药店报账工具/报表.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23085" windowHeight="9345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23085" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="医生" sheetId="3" r:id="rId1"/>
     <sheet name="中成药" sheetId="4" r:id="rId2"/>
     <sheet name="茶方" sheetId="5" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
-    <pivotCache cacheId="6" r:id="rId5"/>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>总计</t>
   </si>
@@ -85,12 +88,56 @@
   <si>
     <t>代煎费</t>
   </si>
+  <si>
+    <t>医生姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代煎费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近7单交易，不足7单会有显示错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +152,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF336699"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +201,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,11 +580,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="476382448"/>
-        <c:axId val="476381664"/>
+        <c:axId val="472896944"/>
+        <c:axId val="472893416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476382448"/>
+        <c:axId val="472896944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476381664"/>
+        <c:crossAx val="472893416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -566,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476381664"/>
+        <c:axId val="472893416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +686,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476382448"/>
+        <c:crossAx val="472896944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -776,11 +845,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="476380096"/>
-        <c:axId val="476379312"/>
+        <c:axId val="472899688"/>
+        <c:axId val="472900080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476380096"/>
+        <c:axId val="472899688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +892,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476379312"/>
+        <c:crossAx val="472900080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -831,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476379312"/>
+        <c:axId val="472900080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +951,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476380096"/>
+        <c:crossAx val="472899688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -896,7 +965,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1041,11 +1109,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="476382056"/>
-        <c:axId val="476381272"/>
+        <c:axId val="472900472"/>
+        <c:axId val="472900864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476382056"/>
+        <c:axId val="472900472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1156,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476381272"/>
+        <c:crossAx val="472900864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,7 +1164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476381272"/>
+        <c:axId val="472900864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1215,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476382056"/>
+        <c:crossAx val="472900472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2973,14 +3041,191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="total"/>
+      <sheetName val="中成药"/>
+      <sheetName val="茶方"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Owner</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Price</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Fee</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>ManagementFee</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>PackingFee</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>ReplacementFee</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Paid_inAmount</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>Remark</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>DateTime</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>PayWay</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>无医生</v>
+          </cell>
+          <cell r="B2">
+            <v>123</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>22</v>
+          </cell>
+          <cell r="E2">
+            <v>22</v>
+          </cell>
+          <cell r="F2">
+            <v>22</v>
+          </cell>
+          <cell r="G2">
+            <v>189</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v/>
+          </cell>
+          <cell r="I2" t="str">
+            <v>2017/7/17/周一 22:13:58</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>现金</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>无医生</v>
+          </cell>
+          <cell r="B3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>2</v>
+          </cell>
+          <cell r="E3">
+            <v>2</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3">
+            <v>7</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v/>
+          </cell>
+          <cell r="I3" t="str">
+            <v>2017/7/17/周一 22:14:37</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>现金</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>无医生</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>2</v>
+          </cell>
+          <cell r="E4">
+            <v>2</v>
+          </cell>
+          <cell r="F4">
+            <v>2</v>
+          </cell>
+          <cell r="G4">
+            <v>8</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v/>
+          </cell>
+          <cell r="I4" t="str">
+            <v>2017/7/17/周一 22:14:38</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>现金</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>无医生</v>
+          </cell>
+          <cell r="B5">
+            <v>123</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>22</v>
+          </cell>
+          <cell r="E5">
+            <v>22</v>
+          </cell>
+          <cell r="F5">
+            <v>22</v>
+          </cell>
+          <cell r="G5">
+            <v>189</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v/>
+          </cell>
+          <cell r="I5" t="str">
+            <v>2017/7/17/周一 22:13:58</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>现金</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="binjie chen" refreshedDate="42933.928883796296" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0">
-  <cacheSource type="external" connectionId="3"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="binjie chen" refreshedDate="42933.93190520833" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0">
+  <cacheSource type="external" connectionId="2"/>
   <cacheFields count="6">
     <cacheField name="Name" numFmtId="0">
-      <sharedItems count="2">
-        <s v="老坛酸菜" u="1"/>
-        <s v="大闸蟹" u="1"/>
+      <sharedItems count="1">
+        <s v="菊花茶" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
@@ -2996,7 +3241,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="月份" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+      <sharedItems count="1">
+        <s v="2017年7月" u="1"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3008,7 +3255,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="binjie chen" refreshedDate="42933.928883912035" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="binjie chen" refreshedDate="42933.931905324076" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2">
   <cacheSource type="external" connectionId="4"/>
   <cacheFields count="11">
     <cacheField name="Owner" numFmtId="0">
@@ -3084,12 +3331,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="binjie chen" refreshedDate="42933.928884606481" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0">
-  <cacheSource type="external" connectionId="2"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="binjie chen" refreshedDate="42933.931905555553" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0">
+  <cacheSource type="external" connectionId="3"/>
   <cacheFields count="6">
     <cacheField name="Name" numFmtId="0">
-      <sharedItems count="1">
-        <s v="菊花茶" u="1"/>
+      <sharedItems count="2">
+        <s v="老坛酸菜" u="1"/>
+        <s v="大闸蟹" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
@@ -3105,9 +3353,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="月份" numFmtId="0">
-      <sharedItems count="1">
-        <s v="2017年7月" u="1"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3283,7 +3529,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B1" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3339,7 +3585,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A3:B3" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3664,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3745,7 +3991,350 @@
         <v>24</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="str">
+        <f>INDEX([1]total!A$1:A$65536,COUNTA([1]total!A$1:A$65536)-ROW([1]total!A1)+1)</f>
+        <v>无医生</v>
+      </c>
+      <c r="B21" s="4">
+        <f>INDEX([1]total!B$1:B$65536,COUNTA([1]total!B$1:B$65536)-ROW([1]total!B1)+1)</f>
+        <v>123</v>
+      </c>
+      <c r="C21" s="4">
+        <f>INDEX([1]total!C$1:C$65536,COUNTA([1]total!C$1:C$65536)-ROW([1]total!C1)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f>INDEX([1]total!D$1:D$65536,COUNTA([1]total!D$1:D$65536)-ROW([1]total!D1)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="E21" s="4">
+        <f>INDEX([1]total!E$1:E$65536,COUNTA([1]total!E$1:E$65536)-ROW([1]total!E1)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <f>INDEX([1]total!F$1:F$65536,COUNTA([1]total!F$1:F$65536)-ROW([1]total!F1)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="G21" s="4">
+        <f>INDEX([1]total!G$1:G$65536,COUNTA([1]total!G$1:G$65536)-ROW([1]total!G1)+1)</f>
+        <v>189</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f>INDEX([1]total!H$1:H$65536,COUNTA([1]total!H$1:H$65536)-ROW([1]total!H1)+1)</f>
+        <v/>
+      </c>
+      <c r="I21" s="4" t="str">
+        <f>INDEX([1]total!I$1:I$65536,COUNTA([1]total!I$1:I$65536)-ROW([1]total!I1)+1)</f>
+        <v>2017/7/17/周一 22:13:58</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f>INDEX([1]total!J$1:J$65536,COUNTA([1]total!J$1:J$65536)-ROW([1]total!J1)+1)</f>
+        <v>现金</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="str">
+        <f>INDEX([1]total!A$1:A$65536,COUNTA([1]total!A$1:A$65536)-ROW([1]total!A2)+1)</f>
+        <v>无医生</v>
+      </c>
+      <c r="B22" s="4">
+        <f>INDEX([1]total!B$1:B$65536,COUNTA([1]total!B$1:B$65536)-ROW([1]total!B2)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <f>INDEX([1]total!C$1:C$65536,COUNTA([1]total!C$1:C$65536)-ROW([1]total!C2)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f>INDEX([1]total!D$1:D$65536,COUNTA([1]total!D$1:D$65536)-ROW([1]total!D2)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="4">
+        <f>INDEX([1]total!E$1:E$65536,COUNTA([1]total!E$1:E$65536)-ROW([1]total!E2)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <f>INDEX([1]total!F$1:F$65536,COUNTA([1]total!F$1:F$65536)-ROW([1]total!F2)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <f>INDEX([1]total!G$1:G$65536,COUNTA([1]total!G$1:G$65536)-ROW([1]total!G2)+1)</f>
+        <v>8</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f>INDEX([1]total!H$1:H$65536,COUNTA([1]total!H$1:H$65536)-ROW([1]total!H2)+1)</f>
+        <v/>
+      </c>
+      <c r="I22" s="4" t="str">
+        <f>INDEX([1]total!I$1:I$65536,COUNTA([1]total!I$1:I$65536)-ROW([1]total!I2)+1)</f>
+        <v>2017/7/17/周一 22:14:38</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f>INDEX([1]total!J$1:J$65536,COUNTA([1]total!J$1:J$65536)-ROW([1]total!J2)+1)</f>
+        <v>现金</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="str">
+        <f>INDEX([1]total!A$1:A$65536,COUNTA([1]total!A$1:A$65536)-ROW([1]total!A3)+1)</f>
+        <v>无医生</v>
+      </c>
+      <c r="B23" s="4">
+        <f>INDEX([1]total!B$1:B$65536,COUNTA([1]total!B$1:B$65536)-ROW([1]total!B3)+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <f>INDEX([1]total!C$1:C$65536,COUNTA([1]total!C$1:C$65536)-ROW([1]total!C3)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <f>INDEX([1]total!D$1:D$65536,COUNTA([1]total!D$1:D$65536)-ROW([1]total!D3)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <f>INDEX([1]total!E$1:E$65536,COUNTA([1]total!E$1:E$65536)-ROW([1]total!E3)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <f>INDEX([1]total!F$1:F$65536,COUNTA([1]total!F$1:F$65536)-ROW([1]total!F3)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <f>INDEX([1]total!G$1:G$65536,COUNTA([1]total!G$1:G$65536)-ROW([1]total!G3)+1)</f>
+        <v>7</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f>INDEX([1]total!H$1:H$65536,COUNTA([1]total!H$1:H$65536)-ROW([1]total!H3)+1)</f>
+        <v/>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f>INDEX([1]total!I$1:I$65536,COUNTA([1]total!I$1:I$65536)-ROW([1]total!I3)+1)</f>
+        <v>2017/7/17/周一 22:14:37</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f>INDEX([1]total!J$1:J$65536,COUNTA([1]total!J$1:J$65536)-ROW([1]total!J3)+1)</f>
+        <v>现金</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="str">
+        <f>INDEX([1]total!A$1:A$65536,COUNTA([1]total!A$1:A$65536)-ROW([1]total!A4)+1)</f>
+        <v>无医生</v>
+      </c>
+      <c r="B24" s="4">
+        <f>INDEX([1]total!B$1:B$65536,COUNTA([1]total!B$1:B$65536)-ROW([1]total!B4)+1)</f>
+        <v>123</v>
+      </c>
+      <c r="C24" s="4">
+        <f>INDEX([1]total!C$1:C$65536,COUNTA([1]total!C$1:C$65536)-ROW([1]total!C4)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f>INDEX([1]total!D$1:D$65536,COUNTA([1]total!D$1:D$65536)-ROW([1]total!D4)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="E24" s="4">
+        <f>INDEX([1]total!E$1:E$65536,COUNTA([1]total!E$1:E$65536)-ROW([1]total!E4)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="4">
+        <f>INDEX([1]total!F$1:F$65536,COUNTA([1]total!F$1:F$65536)-ROW([1]total!F4)+1)</f>
+        <v>22</v>
+      </c>
+      <c r="G24" s="4">
+        <f>INDEX([1]total!G$1:G$65536,COUNTA([1]total!G$1:G$65536)-ROW([1]total!G4)+1)</f>
+        <v>189</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f>INDEX([1]total!H$1:H$65536,COUNTA([1]total!H$1:H$65536)-ROW([1]total!H4)+1)</f>
+        <v/>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f>INDEX([1]total!I$1:I$65536,COUNTA([1]total!I$1:I$65536)-ROW([1]total!I4)+1)</f>
+        <v>2017/7/17/周一 22:13:58</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f>INDEX([1]total!J$1:J$65536,COUNTA([1]total!J$1:J$65536)-ROW([1]total!J4)+1)</f>
+        <v>现金</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="str">
+        <f>INDEX([1]total!A$1:A$65536,COUNTA([1]total!A$1:A$65536)-ROW([1]total!A5)+1)</f>
+        <v>Owner</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>INDEX([1]total!B$1:B$65536,COUNTA([1]total!B$1:B$65536)-ROW([1]total!B5)+1)</f>
+        <v>Price</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>INDEX([1]total!C$1:C$65536,COUNTA([1]total!C$1:C$65536)-ROW([1]total!C5)+1)</f>
+        <v>Fee</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f>INDEX([1]total!D$1:D$65536,COUNTA([1]total!D$1:D$65536)-ROW([1]total!D5)+1)</f>
+        <v>ManagementFee</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f>INDEX([1]total!E$1:E$65536,COUNTA([1]total!E$1:E$65536)-ROW([1]total!E5)+1)</f>
+        <v>PackingFee</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f>INDEX([1]total!F$1:F$65536,COUNTA([1]total!F$1:F$65536)-ROW([1]total!F5)+1)</f>
+        <v>ReplacementFee</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f>INDEX([1]total!G$1:G$65536,COUNTA([1]total!G$1:G$65536)-ROW([1]total!G5)+1)</f>
+        <v>Paid_inAmount</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f>INDEX([1]total!H$1:H$65536,COUNTA([1]total!H$1:H$65536)-ROW([1]total!H5)+1)</f>
+        <v>Remark</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f>INDEX([1]total!I$1:I$65536,COUNTA([1]total!I$1:I$65536)-ROW([1]total!I5)+1)</f>
+        <v>DateTime</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f>INDEX([1]total!J$1:J$65536,COUNTA([1]total!J$1:J$65536)-ROW([1]total!J5)+1)</f>
+        <v>PayWay</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <f>INDEX([1]total!A$1:A$65536,COUNTA([1]total!A$1:A$65536)-ROW([1]total!A6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
+        <f>INDEX([1]total!B$1:B$65536,COUNTA([1]total!B$1:B$65536)-ROW([1]total!B6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <f>INDEX([1]total!C$1:C$65536,COUNTA([1]total!C$1:C$65536)-ROW([1]total!C6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <f>INDEX([1]total!D$1:D$65536,COUNTA([1]total!D$1:D$65536)-ROW([1]total!D6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f>INDEX([1]total!E$1:E$65536,COUNTA([1]total!E$1:E$65536)-ROW([1]total!E6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f>INDEX([1]total!F$1:F$65536,COUNTA([1]total!F$1:F$65536)-ROW([1]total!F6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f>INDEX([1]total!G$1:G$65536,COUNTA([1]total!G$1:G$65536)-ROW([1]total!G6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f>INDEX([1]total!H$1:H$65536,COUNTA([1]total!H$1:H$65536)-ROW([1]total!H6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f>INDEX([1]total!I$1:I$65536,COUNTA([1]total!I$1:I$65536)-ROW([1]total!I6)+1)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>INDEX([1]total!J$1:J$65536,COUNTA([1]total!J$1:J$65536)-ROW([1]total!J6)+1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="e">
+        <f>INDEX([1]total!A$1:A$65536,COUNTA([1]total!A$1:A$65536)-ROW([1]total!A7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B27" s="4" t="e">
+        <f>INDEX([1]total!B$1:B$65536,COUNTA([1]total!B$1:B$65536)-ROW([1]total!B7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="4" t="e">
+        <f>INDEX([1]total!C$1:C$65536,COUNTA([1]total!C$1:C$65536)-ROW([1]total!C7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" s="4" t="e">
+        <f>INDEX([1]total!D$1:D$65536,COUNTA([1]total!D$1:D$65536)-ROW([1]total!D7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="4" t="e">
+        <f>INDEX([1]total!E$1:E$65536,COUNTA([1]total!E$1:E$65536)-ROW([1]total!E7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" s="4" t="e">
+        <f>INDEX([1]total!F$1:F$65536,COUNTA([1]total!F$1:F$65536)-ROW([1]total!F7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" s="4" t="e">
+        <f>INDEX([1]total!G$1:G$65536,COUNTA([1]total!G$1:G$65536)-ROW([1]total!G7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="4" t="e">
+        <f>INDEX([1]total!H$1:H$65536,COUNTA([1]total!H$1:H$65536)-ROW([1]total!H7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="4" t="e">
+        <f>INDEX([1]total!I$1:I$65536,COUNTA([1]total!I$1:I$65536)-ROW([1]total!I7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" s="4" t="e">
+        <f>INDEX([1]total!J$1:J$65536,COUNTA([1]total!J$1:J$65536)-ROW([1]total!J7)+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:D18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3784,8 +4373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3811,6 +4400,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>